--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.1586115054942</v>
+        <v>99.11651100000002</v>
       </c>
       <c r="H2">
-        <v>50.1586115054942</v>
+        <v>297.3495330000001</v>
       </c>
       <c r="I2">
-        <v>0.6712332326381829</v>
+        <v>0.799346251215574</v>
       </c>
       <c r="J2">
-        <v>0.6712332326381829</v>
+        <v>0.7993462512155741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.0097332205895</v>
+        <v>0.3213843333333333</v>
       </c>
       <c r="N2">
-        <v>1.0097332205895</v>
+        <v>0.964153</v>
       </c>
       <c r="O2">
-        <v>0.4702404743953247</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="P2">
-        <v>0.4702404743953247</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="Q2">
-        <v>50.6468163357402</v>
+        <v>31.854493810061</v>
       </c>
       <c r="R2">
-        <v>50.6468163357402</v>
+        <v>286.6904442905491</v>
       </c>
       <c r="S2">
-        <v>0.3156410337456865</v>
+        <v>0.08525392658244609</v>
       </c>
       <c r="T2">
-        <v>0.3156410337456865</v>
+        <v>0.08525392658244609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.1586115054942</v>
+        <v>99.11651100000002</v>
       </c>
       <c r="H3">
-        <v>50.1586115054942</v>
+        <v>297.3495330000001</v>
       </c>
       <c r="I3">
-        <v>0.6712332326381829</v>
+        <v>0.799346251215574</v>
       </c>
       <c r="J3">
-        <v>0.6712332326381829</v>
+        <v>0.7993462512155741</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.13753668825427</v>
+        <v>1.174648</v>
       </c>
       <c r="N3">
-        <v>1.13753668825427</v>
+        <v>3.523944</v>
       </c>
       <c r="O3">
-        <v>0.5297595256046753</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="P3">
-        <v>0.5297595256046753</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="Q3">
-        <v>57.05726081939239</v>
+        <v>116.427011413128</v>
       </c>
       <c r="R3">
-        <v>57.05726081939239</v>
+        <v>1047.843102718152</v>
       </c>
       <c r="S3">
-        <v>0.3555921988924964</v>
+        <v>0.3115999878200362</v>
       </c>
       <c r="T3">
-        <v>0.3555921988924964</v>
+        <v>0.3115999878200363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.3968657645893</v>
+        <v>99.11651100000002</v>
       </c>
       <c r="H4">
-        <v>23.3968657645893</v>
+        <v>297.3495330000001</v>
       </c>
       <c r="I4">
-        <v>0.3131018457129074</v>
+        <v>0.799346251215574</v>
       </c>
       <c r="J4">
-        <v>0.3131018457129074</v>
+        <v>0.7993462512155741</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.0097332205895</v>
+        <v>1.517287666666667</v>
       </c>
       <c r="N4">
-        <v>1.0097332205895</v>
+        <v>4.551863</v>
       </c>
       <c r="O4">
-        <v>0.4702404743953247</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="P4">
-        <v>0.4702404743953247</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="Q4">
-        <v>23.62459262017897</v>
+        <v>150.388259703331</v>
       </c>
       <c r="R4">
-        <v>23.62459262017897</v>
+        <v>1353.494337329979</v>
       </c>
       <c r="S4">
-        <v>0.1472331604620893</v>
+        <v>0.4024923368130917</v>
       </c>
       <c r="T4">
-        <v>0.1472331604620893</v>
+        <v>0.4024923368130917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.3968657645893</v>
+        <v>23.582852</v>
       </c>
       <c r="H5">
-        <v>23.3968657645893</v>
+        <v>70.74855599999999</v>
       </c>
       <c r="I5">
-        <v>0.3131018457129074</v>
+        <v>0.1901889417714845</v>
       </c>
       <c r="J5">
-        <v>0.3131018457129074</v>
+        <v>0.1901889417714845</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.13753668825427</v>
+        <v>0.3213843333333333</v>
       </c>
       <c r="N5">
-        <v>1.13753668825427</v>
+        <v>0.964153</v>
       </c>
       <c r="O5">
-        <v>0.5297595256046753</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="P5">
-        <v>0.5297595256046753</v>
+        <v>0.1066545648432073</v>
       </c>
       <c r="Q5">
-        <v>26.61479319738062</v>
+        <v>7.579159168118666</v>
       </c>
       <c r="R5">
-        <v>26.61479319738062</v>
+        <v>68.21243251306799</v>
       </c>
       <c r="S5">
-        <v>0.1658686852508181</v>
+        <v>0.02028451882262776</v>
       </c>
       <c r="T5">
-        <v>0.1658686852508181</v>
+        <v>0.02028451882262776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.17057779777004</v>
+        <v>23.582852</v>
       </c>
       <c r="H6">
-        <v>1.17057779777004</v>
+        <v>70.74855599999999</v>
       </c>
       <c r="I6">
-        <v>0.01566492164890974</v>
+        <v>0.1901889417714845</v>
       </c>
       <c r="J6">
-        <v>0.01566492164890974</v>
+        <v>0.1901889417714845</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.0097332205895</v>
+        <v>1.174648</v>
       </c>
       <c r="N6">
-        <v>1.0097332205895</v>
+        <v>3.523944</v>
       </c>
       <c r="O6">
-        <v>0.4702404743953247</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="P6">
-        <v>0.4702404743953247</v>
+        <v>0.3898185390200842</v>
       </c>
       <c r="Q6">
-        <v>1.181971289692907</v>
+        <v>27.701549936096</v>
       </c>
       <c r="R6">
-        <v>1.181971289692907</v>
+        <v>249.313949424864</v>
       </c>
       <c r="S6">
-        <v>0.007366280187548907</v>
+        <v>0.07413917541913594</v>
       </c>
       <c r="T6">
-        <v>0.007366280187548907</v>
+        <v>0.07413917541913594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.17057779777004</v>
+        <v>23.582852</v>
       </c>
       <c r="H7">
-        <v>1.17057779777004</v>
+        <v>70.74855599999999</v>
       </c>
       <c r="I7">
-        <v>0.01566492164890974</v>
+        <v>0.1901889417714845</v>
       </c>
       <c r="J7">
-        <v>0.01566492164890974</v>
+        <v>0.1901889417714845</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.13753668825427</v>
+        <v>1.517287666666667</v>
       </c>
       <c r="N7">
-        <v>1.13753668825427</v>
+        <v>4.551863</v>
       </c>
       <c r="O7">
-        <v>0.5297595256046753</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="P7">
-        <v>0.5297595256046753</v>
+        <v>0.5035268961367085</v>
       </c>
       <c r="Q7">
-        <v>1.331575191419308</v>
+        <v>35.78197048442533</v>
       </c>
       <c r="R7">
-        <v>1.331575191419308</v>
+        <v>322.037734359828</v>
       </c>
       <c r="S7">
-        <v>0.00829864146136083</v>
+        <v>0.09576524752972077</v>
       </c>
       <c r="T7">
-        <v>0.00829864146136083</v>
+        <v>0.09576524752972077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.297604333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.892813</v>
+      </c>
+      <c r="I8">
+        <v>0.01046480701294141</v>
+      </c>
+      <c r="J8">
+        <v>0.01046480701294141</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3213843333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.964153</v>
+      </c>
+      <c r="O8">
+        <v>0.1066545648432073</v>
+      </c>
+      <c r="P8">
+        <v>0.1066545648432073</v>
+      </c>
+      <c r="Q8">
+        <v>0.4170297035987778</v>
+      </c>
+      <c r="R8">
+        <v>3.753267332389</v>
+      </c>
+      <c r="S8">
+        <v>0.001116119438133409</v>
+      </c>
+      <c r="T8">
+        <v>0.001116119438133409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.297604333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.892813</v>
+      </c>
+      <c r="I9">
+        <v>0.01046480701294141</v>
+      </c>
+      <c r="J9">
+        <v>0.01046480701294141</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.174648</v>
+      </c>
+      <c r="N9">
+        <v>3.523944</v>
+      </c>
+      <c r="O9">
+        <v>0.3898185390200842</v>
+      </c>
+      <c r="P9">
+        <v>0.3898185390200842</v>
+      </c>
+      <c r="Q9">
+        <v>1.524228334941333</v>
+      </c>
+      <c r="R9">
+        <v>13.718055014472</v>
+      </c>
+      <c r="S9">
+        <v>0.00407937578091195</v>
+      </c>
+      <c r="T9">
+        <v>0.00407937578091195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.297604333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.892813</v>
+      </c>
+      <c r="I10">
+        <v>0.01046480701294141</v>
+      </c>
+      <c r="J10">
+        <v>0.01046480701294141</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.517287666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.551863</v>
+      </c>
+      <c r="O10">
+        <v>0.5035268961367085</v>
+      </c>
+      <c r="P10">
+        <v>0.5035268961367085</v>
+      </c>
+      <c r="Q10">
+        <v>1.968839051179889</v>
+      </c>
+      <c r="R10">
+        <v>17.719551460619</v>
+      </c>
+      <c r="S10">
+        <v>0.005269311793896047</v>
+      </c>
+      <c r="T10">
+        <v>0.005269311793896047</v>
       </c>
     </row>
   </sheetData>
